--- a/data/rw/初试成绩分析汇总.xlsx
+++ b/data/rw/初试成绩分析汇总.xlsx
@@ -7,14 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2024年统计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2022年统计" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2021年统计" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2020年统计" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2024年相关性" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2022年相关性" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="2021年相关性" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="2020年相关性" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="2025年统计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2024年统计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2022年统计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2021年统计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2020年统计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2025年相关性" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2024年相关性" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2022年相关性" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="2021年相关性" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="2020年相关性" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,19 +476,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69.54000000000001</v>
+        <v>61.41</v>
       </c>
       <c r="C2" t="n">
-        <v>77.81</v>
+        <v>66.25</v>
       </c>
       <c r="D2" t="n">
-        <v>121.55</v>
+        <v>129.46</v>
       </c>
       <c r="E2" t="n">
-        <v>126</v>
+        <v>118.04</v>
       </c>
       <c r="F2" t="n">
-        <v>394.9</v>
+        <v>375.17</v>
       </c>
     </row>
     <row r="3">
@@ -496,19 +498,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C3" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D3" t="n">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E3" t="n">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F3" t="n">
-        <v>393</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4">
@@ -518,19 +520,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C4" t="n">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D4" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E4" t="n">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F4" t="n">
-        <v>405</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5">
@@ -540,19 +542,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F5" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6">
@@ -562,19 +564,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C6" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D6" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E6" t="n">
         <v>146</v>
       </c>
       <c r="F6" t="n">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7">
@@ -584,19 +586,175 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.92</v>
+        <v>4.2</v>
       </c>
       <c r="C7" t="n">
-        <v>5.43</v>
+        <v>6.93</v>
       </c>
       <c r="D7" t="n">
-        <v>12.26</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>8.630000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="F7" t="n">
-        <v>15.8</v>
+        <v>15.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>科目1成绩</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>科目2成绩</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>科目3成绩</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>科目4成绩</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>总成绩</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>科目1成绩</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1383753598459832</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06711495008718732</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.006008219205154257</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3235919347764733</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>科目2成绩</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1383753598459832</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1484161685483801</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.02796271126203253</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4469709109546411</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>科目3成绩</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.06711495008718732</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1484161685483801</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.03425258853390491</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7219717417832013</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>科目4成绩</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.006008219205154257</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.02796271126203253</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.03425258853390491</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5201986177518787</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>总成绩</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3235919347764733</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4469709109546411</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7219717417832013</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5201986177518787</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -652,19 +810,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70.06999999999999</v>
+        <v>69.54000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>73.8</v>
+        <v>77.81</v>
       </c>
       <c r="D2" t="n">
-        <v>117.38</v>
+        <v>121.55</v>
       </c>
       <c r="E2" t="n">
-        <v>113.92</v>
+        <v>126</v>
       </c>
       <c r="F2" t="n">
-        <v>375.16</v>
+        <v>394.9</v>
       </c>
     </row>
     <row r="3">
@@ -677,16 +835,16 @@
         <v>70</v>
       </c>
       <c r="C3" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D3" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E3" t="n">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F3" t="n">
-        <v>372</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4">
@@ -699,16 +857,16 @@
         <v>73</v>
       </c>
       <c r="C4" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D4" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E4" t="n">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F4" t="n">
-        <v>386.75</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5">
@@ -718,19 +876,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
-        <v>345</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6">
@@ -743,16 +901,16 @@
         <v>82</v>
       </c>
       <c r="C6" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E6" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F6" t="n">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7">
@@ -762,19 +920,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.87</v>
+        <v>4.92</v>
       </c>
       <c r="C7" t="n">
-        <v>5.7</v>
+        <v>5.43</v>
       </c>
       <c r="D7" t="n">
-        <v>12.8</v>
+        <v>12.26</v>
       </c>
       <c r="E7" t="n">
-        <v>10.32</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>17.37</v>
+        <v>15.8</v>
       </c>
     </row>
   </sheetData>
@@ -830,19 +988,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71.97</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>72.16</v>
+        <v>73.8</v>
       </c>
       <c r="D2" t="n">
-        <v>127.32</v>
+        <v>117.38</v>
       </c>
       <c r="E2" t="n">
-        <v>113.67</v>
+        <v>113.92</v>
       </c>
       <c r="F2" t="n">
-        <v>385.12</v>
+        <v>375.16</v>
       </c>
     </row>
     <row r="3">
@@ -852,19 +1010,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" t="n">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E3" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F3" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4">
@@ -874,19 +1032,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" t="n">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E4" t="n">
         <v>121</v>
       </c>
       <c r="F4" t="n">
-        <v>402</v>
+        <v>386.75</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +1054,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
         <v>90</v>
@@ -908,7 +1066,7 @@
         <v>90</v>
       </c>
       <c r="F5" t="n">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6">
@@ -918,16 +1076,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C6" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E6" t="n">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F6" t="n">
         <v>441</v>
@@ -940,19 +1098,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.81</v>
+        <v>4.87</v>
       </c>
       <c r="C7" t="n">
-        <v>6.72</v>
+        <v>5.7</v>
       </c>
       <c r="D7" t="n">
-        <v>14.14</v>
+        <v>12.8</v>
       </c>
       <c r="E7" t="n">
-        <v>11.05</v>
+        <v>10.32</v>
       </c>
       <c r="F7" t="n">
-        <v>21.6</v>
+        <v>17.37</v>
       </c>
     </row>
   </sheetData>
@@ -1008,19 +1166,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69.06999999999999</v>
+        <v>71.97</v>
       </c>
       <c r="C2" t="n">
-        <v>74.29000000000001</v>
+        <v>72.16</v>
       </c>
       <c r="D2" t="n">
-        <v>114.13</v>
+        <v>127.32</v>
       </c>
       <c r="E2" t="n">
-        <v>116.32</v>
+        <v>113.67</v>
       </c>
       <c r="F2" t="n">
-        <v>373.81</v>
+        <v>385.12</v>
       </c>
     </row>
     <row r="3">
@@ -1030,19 +1188,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" t="n">
+        <v>129</v>
+      </c>
+      <c r="E3" t="n">
         <v>113</v>
       </c>
-      <c r="E3" t="n">
-        <v>117</v>
-      </c>
       <c r="F3" t="n">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4">
@@ -1052,19 +1210,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D4" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E4" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F4" t="n">
-        <v>386</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5">
@@ -1074,7 +1232,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="n">
         <v>55</v>
@@ -1086,7 +1244,7 @@
         <v>90</v>
       </c>
       <c r="F5" t="n">
-        <v>316</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6">
@@ -1096,19 +1254,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C6" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E6" t="n">
         <v>145</v>
       </c>
       <c r="F6" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7">
@@ -1118,19 +1276,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.78</v>
+        <v>4.81</v>
       </c>
       <c r="C7" t="n">
-        <v>6.67</v>
+        <v>6.72</v>
       </c>
       <c r="D7" t="n">
-        <v>13.7</v>
+        <v>14.14</v>
       </c>
       <c r="E7" t="n">
-        <v>11.22</v>
+        <v>11.05</v>
       </c>
       <c r="F7" t="n">
-        <v>20.25</v>
+        <v>21.6</v>
       </c>
     </row>
   </sheetData>
@@ -1144,7 +1302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1155,22 +1313,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>科目1成绩</t>
+          <t>政治</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>科目2成绩</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>科目3成绩</t>
+          <t>数学</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>科目4成绩</t>
+          <t>408</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -1182,111 +1340,133 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>科目1成绩</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>69.06999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09700343153971477</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1106764990730987</v>
+        <v>114.13</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003332107538955379</v>
+        <v>116.32</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2606495260189186</v>
+        <v>373.81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>科目2成绩</t>
+          <t>median</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09700343153971477</v>
+        <v>69</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.008365633984130601</v>
+        <v>113</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03293415382435184</v>
+        <v>117</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3493454554727899</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>科目3成绩</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1106764990730987</v>
+        <v>72</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.008365633984130601</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.07902586528110553</v>
+        <v>124</v>
       </c>
       <c r="F4" t="n">
-        <v>0.695460250307173</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>科目4成绩</t>
+          <t>min</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003332107538955379</v>
+        <v>56</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.03293415382435184</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.07902586528110553</v>
+        <v>90</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4745271857351788</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>总成绩</t>
+          <t>max</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2606495260189186</v>
+        <v>82</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3493454554727899</v>
+        <v>90</v>
       </c>
       <c r="D6" t="n">
-        <v>0.695460250307173</v>
+        <v>146</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4745271857351788</v>
+        <v>145</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.25</v>
       </c>
     </row>
   </sheetData>
@@ -1345,16 +1525,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1927990971420244</v>
+        <v>0.1967906223593742</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08607077561151272</v>
+        <v>-0.04413131064098268</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.07070110792377991</v>
+        <v>0.003240438235256468</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3649398161779503</v>
+        <v>0.339315125819799</v>
       </c>
     </row>
     <row r="3">
@@ -1364,19 +1544,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1927990971420244</v>
+        <v>0.1967906223593742</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03052115211538628</v>
+        <v>0.001596776651295927</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.06659994436741294</v>
+        <v>-0.102997590366676</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3203897800739833</v>
+        <v>0.4410526237831607</v>
       </c>
     </row>
     <row r="4">
@@ -1386,19 +1566,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08607077561151272</v>
+        <v>-0.04413131064098268</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.03052115211538628</v>
+        <v>0.001596776651295927</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1021742976536642</v>
+        <v>0.04549962253881749</v>
       </c>
       <c r="F4" t="n">
-        <v>0.690512078005808</v>
+        <v>0.5784824059795253</v>
       </c>
     </row>
     <row r="5">
@@ -1408,19 +1588,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07070110792377991</v>
+        <v>0.003240438235256468</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.06659994436741294</v>
+        <v>-0.102997590366676</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1021742976536642</v>
+        <v>0.04549962253881749</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4771745182159468</v>
+        <v>0.6094397693368266</v>
       </c>
     </row>
     <row r="6">
@@ -1430,16 +1610,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3649398161779503</v>
+        <v>0.339315125819799</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3203897800739833</v>
+        <v>0.4410526237831607</v>
       </c>
       <c r="D6" t="n">
-        <v>0.690512078005808</v>
+        <v>0.5784824059795253</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4771745182159468</v>
+        <v>0.6094397693368266</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -1501,16 +1681,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2071255512420308</v>
+        <v>0.09700343153971477</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1510369710269501</v>
+        <v>-0.1106764990730987</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06015231217182507</v>
+        <v>0.003332107538955379</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4166911525721737</v>
+        <v>0.2606495260189186</v>
       </c>
     </row>
     <row r="3">
@@ -1520,19 +1700,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2071255512420308</v>
+        <v>0.09700343153971477</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0983211518610811</v>
+        <v>-0.008365633984130601</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00983397513504442</v>
+        <v>-0.03293415382435184</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4266782906794278</v>
+        <v>0.3493454554727899</v>
       </c>
     </row>
     <row r="4">
@@ -1542,19 +1722,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1510369710269501</v>
+        <v>-0.1106764990730987</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0983211518610811</v>
+        <v>-0.008365633984130601</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05010247814743975</v>
+        <v>-0.07902586528110553</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7445219318999007</v>
+        <v>0.695460250307173</v>
       </c>
     </row>
     <row r="5">
@@ -1564,19 +1744,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06015231217182507</v>
+        <v>0.003332107538955379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00983397513504442</v>
+        <v>-0.03293415382435184</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05010247814743975</v>
+        <v>-0.07902586528110553</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5609747193534808</v>
+        <v>0.4745271857351788</v>
       </c>
     </row>
     <row r="6">
@@ -1586,16 +1766,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4166911525721737</v>
+        <v>0.2606495260189186</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4266782906794278</v>
+        <v>0.3493454554727899</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7445219318999007</v>
+        <v>0.695460250307173</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5609747193534808</v>
+        <v>0.4745271857351788</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -1657,16 +1837,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1383753598459832</v>
+        <v>0.1927990971420244</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06711495008718732</v>
+        <v>0.08607077561151272</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.006008219205154257</v>
+        <v>-0.07070110792377991</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3235919347764733</v>
+        <v>0.3649398161779503</v>
       </c>
     </row>
     <row r="3">
@@ -1676,19 +1856,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1383753598459832</v>
+        <v>0.1927990971420244</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1484161685483801</v>
+        <v>-0.03052115211538628</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02796271126203253</v>
+        <v>-0.06659994436741294</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4469709109546411</v>
+        <v>0.3203897800739833</v>
       </c>
     </row>
     <row r="4">
@@ -1698,19 +1878,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06711495008718732</v>
+        <v>0.08607077561151272</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1484161685483801</v>
+        <v>-0.03052115211538628</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.03425258853390491</v>
+        <v>-0.1021742976536642</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7219717417832013</v>
+        <v>0.690512078005808</v>
       </c>
     </row>
     <row r="5">
@@ -1720,19 +1900,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006008219205154257</v>
+        <v>-0.07070110792377991</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.02796271126203253</v>
+        <v>-0.06659994436741294</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.03425258853390491</v>
+        <v>-0.1021742976536642</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5201986177518787</v>
+        <v>0.4771745182159468</v>
       </c>
     </row>
     <row r="6">
@@ -1742,16 +1922,172 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3235919347764733</v>
+        <v>0.3649398161779503</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4469709109546411</v>
+        <v>0.3203897800739833</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7219717417832013</v>
+        <v>0.690512078005808</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5201986177518787</v>
+        <v>0.4771745182159468</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>科目1成绩</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>科目2成绩</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>科目3成绩</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>科目4成绩</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>总成绩</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>科目1成绩</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2071255512420308</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1510369710269501</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.06015231217182507</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.4166911525721737</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>科目2成绩</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2071255512420308</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0983211518610811</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.00983397513504442</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4266782906794278</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>科目3成绩</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1510369710269501</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0983211518610811</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.05010247814743975</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7445219318999007</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>科目4成绩</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.06015231217182507</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00983397513504442</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05010247814743975</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5609747193534808</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>总成绩</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4166911525721737</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4266782906794278</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7445219318999007</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5609747193534808</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
